--- a/config_6.1/shoping_config_cjj.xlsx
+++ b/config_6.1/shoping_config_cjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5146" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1840">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6718,9 +6718,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6754,10 +6754,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6768,9 +6777,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6785,14 +6822,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6807,22 +6845,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6837,15 +6868,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6870,40 +6899,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6984,7 +6984,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6996,19 +7038,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7026,79 +7122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7110,31 +7134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,15 +7174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7217,32 +7208,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7271,6 +7236,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7279,10 +7279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7291,133 +7291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10133,14 +10133,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF648"/>
+  <dimension ref="A1:AIF654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AL622" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AL625" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A648" sqref="$A648:$XFD648"/>
+      <selection pane="bottomRight" activeCell="AP649" sqref="AP649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -59674,6 +59674,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="649" spans="1:39">
+      <c r="A649" s="21">
+        <v>648</v>
+      </c>
+      <c r="B649" s="30">
+        <v>10565</v>
+      </c>
+      <c r="F649" s="30">
+        <v>1</v>
+      </c>
+      <c r="G649" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J649" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L649" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M649" s="28">
+        <v>0</v>
+      </c>
+      <c r="N649" s="28">
+        <v>0</v>
+      </c>
+      <c r="O649" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P649" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q649" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R649" s="52" t="s">
+        <v>1573</v>
+      </c>
+      <c r="W649" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X649" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y649" s="30">
+        <v>1622505600</v>
+      </c>
+      <c r="Z649" s="30">
+        <v>1623081599</v>
+      </c>
+      <c r="AH649" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI649" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL649" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM649" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:39">
+      <c r="A650" s="21">
+        <v>649</v>
+      </c>
+      <c r="B650" s="30">
+        <v>10566</v>
+      </c>
+      <c r="F650" s="30">
+        <v>1</v>
+      </c>
+      <c r="G650" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J650" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L650" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M650" s="28">
+        <v>0</v>
+      </c>
+      <c r="N650" s="28">
+        <v>0</v>
+      </c>
+      <c r="O650" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P650" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q650" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R650" s="52" t="s">
+        <v>1575</v>
+      </c>
+      <c r="W650" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X650" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y650" s="30">
+        <v>1622505600</v>
+      </c>
+      <c r="Z650" s="30">
+        <v>1623081599</v>
+      </c>
+      <c r="AH650" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI650" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL650" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM650" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:39">
+      <c r="A651" s="21">
+        <v>650</v>
+      </c>
+      <c r="B651" s="30">
+        <v>10567</v>
+      </c>
+      <c r="F651" s="30">
+        <v>1</v>
+      </c>
+      <c r="G651" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J651" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L651" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M651" s="28">
+        <v>0</v>
+      </c>
+      <c r="N651" s="28">
+        <v>0</v>
+      </c>
+      <c r="O651" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P651" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q651" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R651" s="52" t="s">
+        <v>1577</v>
+      </c>
+      <c r="W651" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X651" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y651" s="30">
+        <v>1622505600</v>
+      </c>
+      <c r="Z651" s="30">
+        <v>1623081599</v>
+      </c>
+      <c r="AH651" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI651" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL651" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM651" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:39">
+      <c r="A652" s="21">
+        <v>651</v>
+      </c>
+      <c r="B652" s="30">
+        <v>10568</v>
+      </c>
+      <c r="F652" s="30">
+        <v>1</v>
+      </c>
+      <c r="G652" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J652" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L652" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M652" s="28">
+        <v>0</v>
+      </c>
+      <c r="N652" s="28">
+        <v>0</v>
+      </c>
+      <c r="O652" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P652" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q652" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R652" s="52" t="s">
+        <v>1579</v>
+      </c>
+      <c r="W652" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X652" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y652" s="30">
+        <v>1622505600</v>
+      </c>
+      <c r="Z652" s="30">
+        <v>1623081599</v>
+      </c>
+      <c r="AH652" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI652" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL652" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM652" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:39">
+      <c r="A653" s="21">
+        <v>652</v>
+      </c>
+      <c r="B653" s="30">
+        <v>10569</v>
+      </c>
+      <c r="F653" s="30">
+        <v>1</v>
+      </c>
+      <c r="G653" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J653" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L653" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M653" s="28">
+        <v>0</v>
+      </c>
+      <c r="N653" s="28">
+        <v>0</v>
+      </c>
+      <c r="O653" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P653" s="30">
+        <v>2000</v>
+      </c>
+      <c r="Q653" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R653" s="52" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W653" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X653" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y653" s="30">
+        <v>1622505600</v>
+      </c>
+      <c r="Z653" s="30">
+        <v>1623081599</v>
+      </c>
+      <c r="AH653" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI653" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL653" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM653" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:39">
+      <c r="A654" s="21">
+        <v>653</v>
+      </c>
+      <c r="B654" s="30">
+        <v>10570</v>
+      </c>
+      <c r="F654" s="30">
+        <v>1</v>
+      </c>
+      <c r="G654" s="30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J654" s="28" t="s">
+        <v>1582</v>
+      </c>
+      <c r="L654" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M654" s="28">
+        <v>0</v>
+      </c>
+      <c r="N654" s="28">
+        <v>0</v>
+      </c>
+      <c r="O654" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P654" s="30">
+        <v>600</v>
+      </c>
+      <c r="Q654" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R654" s="52" t="s">
+        <v>1583</v>
+      </c>
+      <c r="W654" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X654" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y654" s="30">
+        <v>1622505600</v>
+      </c>
+      <c r="Z654" s="30">
+        <v>1623081599</v>
+      </c>
+      <c r="AH654" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI654" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL654" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM654" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
